--- a/config_debug/fish3d_head_frame_config.xlsx
+++ b/config_debug/fish3d_head_frame_config.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -310,6 +310,14 @@
   <si>
     <t>skill_id|技能id</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础头像框</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -469,9 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -774,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -810,7 +815,7 @@
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -819,100 +824,118 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="12"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F3" s="11"/>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3">
         <v>5</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="18" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I7" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -962,7 +985,7 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
@@ -977,7 +1000,7 @@
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -994,7 +1017,7 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="6" t="s">
         <v>24</v>
       </c>
@@ -1009,8 +1032,8 @@
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1024,13 +1047,13 @@
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1078,10 +1101,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="2">
@@ -1092,10 +1115,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="2">
@@ -1106,10 +1129,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>3</v>
       </c>
       <c r="C4" s="2">
@@ -1120,10 +1143,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>4</v>
       </c>
       <c r="C5" s="2">
@@ -1134,10 +1157,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>5</v>
       </c>
       <c r="C6" s="2">
